--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,170 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33333</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1631401025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:59:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>33333</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:59:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>33333</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:59:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>33333</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:59:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>33333</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:59:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>33333</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:59:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>111222</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1631401025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>111222</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>111222</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>111222</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>111222</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>111222</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:08:30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
